--- a/biology/Histoire de la zoologie et de la botanique/Sergueï_Kourzanov/Sergueï_Kourzanov.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sergueï_Kourzanov/Sergueï_Kourzanov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Kourzanov</t>
+          <t>Sergueï_Kourzanov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergueï Mikhaïlovitch Kourzanov (en russe : Сергей Михайлович Курзанов), né le 11 février 1947 (77 ans), est un paléontologue russo-soviétique de l'Institut paléontologique de l'Académie russe des sciences.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Kourzanov</t>
+          <t>Sergueï_Kourzanov</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est surtout connu pour son travail en Mongolie et dans les ex-républiques soviétiques d'Asie centrale. 
-En 1976, il annonce la découverte d'Alioramus[1]. 
-En 1981, il annonce la découverte d'Avimimus[2].
-En 1998, une espèce de dinosaure iguanodonte de Mongolie a été nommée Altirhinus kurzanovi en son honneur[3].
+En 1976, il annonce la découverte d'Alioramus. 
+En 1981, il annonce la découverte d'Avimimus.
+En 1998, une espèce de dinosaure iguanodonte de Mongolie a été nommée Altirhinus kurzanovi en son honneur.
 </t>
         </is>
       </c>
